--- a/gropin/schema/metadataschema1184.xlsx
+++ b/gropin/schema/metadataschema1184.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Staphylococcus aureus in/on TSB (gropin ID: 1184 )</t>
+          <t>Gropin secondary growth model for Staphylococcus aureus in/on TSB (gropin ID: 1184 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(7.007,18.981018981019,length.out=21)</t>
+          <t>seq(7.007,18.981018981019,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.5045,8.49150849150849,length.out=21)</t>
+          <t>seq(4.5045,8.49150849150849,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.95095,0.998001998001998,length.out=21)</t>
+          <t>seq(0.95095,0.998001998001998,length.out=10)</t>
         </is>
       </c>
     </row>
